--- a/biology/Médecine/Thomas_R._Insel/Thomas_R._Insel.xlsx
+++ b/biology/Médecine/Thomas_R._Insel/Thomas_R._Insel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Roland Insel, né le 19 octobre 1951 à Dayton en Ohio, est un neuroscientifique et un psychiatre américain. Il dirige le National Institute of Mental Health (NIMH) depuis 2002[1]. Avant d'occuper ce poste, il était directeur du Center for Behavioral Neuroscience de l'université Emory à Atlanta en Géorgie, aux États-Unis[2],[3]. En neurosciences, il a surtout fait des recherches sur l'ocytocine et la vasopressine, deux hormones peptidiques qui régulent les comportements sociaux dits complexes, tels les soins parentaux et l'attachement[4],[5],[6]. Il s'est aussi fait remarquer pour ses critiques sur le DSM-5[7]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Roland Insel, né le 19 octobre 1951 à Dayton en Ohio, est un neuroscientifique et un psychiatre américain. Il dirige le National Institute of Mental Health (NIMH) depuis 2002. Avant d'occuper ce poste, il était directeur du Center for Behavioral Neuroscience de l'université Emory à Atlanta en Géorgie, aux États-Unis,. En neurosciences, il a surtout fait des recherches sur l'ocytocine et la vasopressine, deux hormones peptidiques qui régulent les comportements sociaux dits complexes, tels les soins parentaux et l'attachement. Il s'est aussi fait remarquer pour ses critiques sur le DSM-5
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) T. R. Insel (dir.), New Findings in Obsessive-Compulsive Disorder, American Psychiatric Press, Inc., 1984
 (en) J. Zohar (dir.), S. Rasmussen (dir.) et T. R. Insel (dir.), The Psychobiology of Obsessive-Compulsive Disorder, Springer-Verlag, 1991
@@ -544,9 +558,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Doctorat honoris causa de l'université de Bâle en 2018[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Doctorat honoris causa de l'université de Bâle en 2018</t>
         </is>
       </c>
     </row>
